--- a/Excel/trip_1_15.xlsx
+++ b/Excel/trip_1_15.xlsx
@@ -2723,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="15" t="str">
-        <v xml:space="preserve"> Science</v>
+        <v/>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2783,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="27" t="str">
-        <v>2000-01-01 02:00:00 UTC</v>
+        <v>02:00AM</v>
       </c>
       <c r="I5" s="28">
         <v>42350.0</v>
@@ -2809,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="27" t="str">
-        <v>2000-01-01 03:00:00 UTC</v>
+        <v>03:00AM</v>
       </c>
       <c r="I6" s="28">
         <v>42368.0</v>
@@ -2852,9 +2852,11 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
-        <v>23</v>
+      <c r="F8" s="35">
+        <v>42321.0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>42325.0</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -2902,7 +2904,9 @@
         <v>28</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="44">
+        <v>44.0</v>
+      </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -2911,7 +2915,7 @@
       <c r="L10" s="44"/>
       <c r="M10" s="45">
         <f aca="false">SUM(F10:L10)</f>
-        <v>0</v>
+        <v>44.0</v>
       </c>
       <c r="N10" s="0"/>
       <c r="P10" s="0"/>
@@ -2952,7 +2956,9 @@
         <v>32</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="F12" s="44">
+        <v>22.0</v>
+      </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -2961,7 +2967,7 @@
       <c r="L12" s="44"/>
       <c r="M12" s="45">
         <f aca="false">SUM(F12:L12)</f>
-        <v>0</v>
+        <v>22.0</v>
       </c>
       <c r="N12" s="0"/>
       <c r="P12" s="0"/>
@@ -3021,7 +3027,9 @@
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="51">
+        <v>777.0</v>
+      </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -3029,7 +3037,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="45">
         <f aca="false">SUM(F14:L14)</f>
-        <v>0</v>
+        <v>777.0</v>
       </c>
       <c r="N14" s="0"/>
       <c r="P14" s="0"/>
@@ -3052,7 +3060,7 @@
       <c r="L15" s="52"/>
       <c r="M15" s="53">
         <f aca="false">IF(M4="Y",SUM(M10:M14,'Page 2'!M15,'Page 3'!M15),SUM(M10:M14))</f>
-        <v>0</v>
+        <v>843.0</v>
       </c>
       <c r="N15" s="0"/>
       <c r="P15" s="0"/>
